--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail10 Features.xlsx
@@ -4805,7 +4805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,29 +4816,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4859,115 +4857,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4984,72 +4972,66 @@
         <v>2.624703648261601e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1775027704579776</v>
+        <v>1.391535987936536e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.3879199237651765</v>
+        <v>2.531573272459398e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.391535987936536e-06</v>
+        <v>-0.06160178817474715</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.531573272459398e-06</v>
+        <v>0.3289378625001685</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06160178817474715</v>
+        <v>0.111715443831237</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3289378625001685</v>
+        <v>1.696742778080964</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.111715443831237</v>
+        <v>1.611460674606678</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.628148857570354</v>
+        <v>4.356260732023166</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.611460674606678</v>
+        <v>4.42277368885575e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.356260732023166</v>
+        <v>43905057.94315082</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.42277368885575e-15</v>
+        <v>2.552657904995494e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>43905057.94315082</v>
+        <v>8.52557789215307</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.552657904995494e-06</v>
+        <v>0.0001439363313148433</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.52557789215307</v>
+        <v>8.746109956030553</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001439363313148433</v>
+        <v>1.362781656710628</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.746109956030553</v>
+        <v>0.01101032896789261</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.362781656710628</v>
+        <v>3.015531159995853</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01101032896789261</v>
+        <v>0.9548890755228967</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.015531159995853</v>
+        <v>1.777476358372235</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9548890755228967</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.777476358372235</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1699346268288923</v>
       </c>
     </row>
@@ -5064,72 +5046,66 @@
         <v>2.425772712581206e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1839025375763869</v>
+        <v>9.266591922974879e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.381182895404427</v>
+        <v>2.519408663207839e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.266591922974879e-07</v>
+        <v>-0.03577352039806036</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.519408663207839e-06</v>
+        <v>0.260593882265198</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03577352039806036</v>
+        <v>0.06902377838690291</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.260593882265198</v>
+        <v>1.696991477967647</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06902377838690291</v>
+        <v>1.569692748669876</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.631339354364486</v>
+        <v>4.339585610247985</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.569692748669876</v>
+        <v>4.456828546379238e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.339585610247985</v>
+        <v>43579024.63409153</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.456828546379238e-15</v>
+        <v>2.570882903719826e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>43579024.63409153</v>
+        <v>8.464102983625095</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.570882903719826e-06</v>
+        <v>0.0001370309166739052</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.464102983625095</v>
+        <v>9.722373256417674</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001370309166739052</v>
+        <v>1.17563048901033</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.722373256417674</v>
+        <v>0.01295278460241639</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.17563048901033</v>
+        <v>2.834992541467944</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01295278460241639</v>
+        <v>0.9539674186568645</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.834992541467944</v>
+        <v>1.798817150427877</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9539674186568645</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.798817150427877</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1841440978577122</v>
       </c>
     </row>
@@ -5144,72 +5120,66 @@
         <v>2.371771301038281e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2028585074785433</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.405098051275736</v>
+        <v>2.513464656862163e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>-0.01519479905210322</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.513464656862163e-06</v>
+        <v>0.2030021095184042</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01519479905210322</v>
+        <v>0.04136210429714301</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2030021095184042</v>
+        <v>1.699376782999623</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04136210429714301</v>
+        <v>1.551639170001203</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.633366299893306</v>
+        <v>4.352926860602744</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.551639170001203</v>
+        <v>4.429551016293077e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.352926860602744</v>
+        <v>43541229.76378576</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.429551016293077e-15</v>
+        <v>2.571861824890296e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>43541229.76378576</v>
+        <v>8.397714193106056</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.571861824890296e-06</v>
+        <v>0.0001314880896285316</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.397714193106056</v>
+        <v>8.888410130740995</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001314880896285316</v>
+        <v>1.213982078308079</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.888410130740995</v>
+        <v>0.01038806329175394</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.213982078308079</v>
+        <v>2.919917196317148</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01038806329175394</v>
+        <v>0.9535503255049733</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.919917196317148</v>
+        <v>1.832687209238933</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9535503255049733</v>
+        <v>25</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.832687209238933</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1865402793047533</v>
       </c>
     </row>
@@ -5224,72 +5194,66 @@
         <v>2.365072888784778e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1850867339596846</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.396423758417387</v>
+        <v>2.51161527825324e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>-0.001688365590444595</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.51161527825324e-06</v>
+        <v>0.1686810849689745</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.001688365590444595</v>
+        <v>0.02842576530907054</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1686810849689745</v>
+        <v>1.708088945068679</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02842576530907054</v>
+        <v>1.535120703075284</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.641788989896025</v>
+        <v>4.40032544640998</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.535120703075284</v>
+        <v>4.334638181859001e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.40032544640998</v>
+        <v>44910163.50922807</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.334638181859001e-15</v>
+        <v>2.503196125972033e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>44910163.50922807</v>
+        <v>8.742630519901855</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.503196125972033e-06</v>
+        <v>0.0001275523525244517</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.742630519901855</v>
+        <v>7.874565637955058</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001275523525244517</v>
+        <v>1.281385941718417</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.874565637955058</v>
+        <v>0.007909366274653848</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.281385941718417</v>
+        <v>3.040367207171324</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007909366274653848</v>
+        <v>0.9531294443526797</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.040367207171324</v>
+        <v>1.804819443901069</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9531294443526797</v>
+        <v>40</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.804819443901069</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1875463053752955</v>
       </c>
     </row>
@@ -5304,72 +5268,66 @@
         <v>2.3641573165081e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.192372061872291</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.392171753907427</v>
+        <v>2.512199007243694e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>0.005644734469513749</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.512199007243694e-06</v>
+        <v>0.1550759161707256</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.005644734469513749</v>
+        <v>0.0240721675150123</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1550759161707256</v>
+        <v>1.705221034911422</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0240721675150123</v>
+        <v>1.503300791546708</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.638845935634179</v>
+        <v>4.506477540574576</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.503300791546708</v>
+        <v>4.132834612869774e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.506477540574576</v>
+        <v>46166228.80698125</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.132834612869774e-15</v>
+        <v>2.426761960603252e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>46166228.80698125</v>
+        <v>8.808395886763337</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.426761960603252e-06</v>
+        <v>0.000130192203843501</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.808395886763337</v>
+        <v>7.32124587471493</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000130192203843501</v>
+        <v>1.441120753760937</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.32124587471493</v>
+        <v>0.006978385599788639</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.441120753760937</v>
+        <v>3.111052419663278</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006978385599788639</v>
+        <v>0.9519633489613176</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.111052419663278</v>
+        <v>1.811193341877802</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9519633489613176</v>
+        <v>40</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.811193341877802</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1854979132108144</v>
       </c>
     </row>
@@ -5384,72 +5342,66 @@
         <v>2.358812204431409e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2132304383192231</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.372945275596421</v>
+        <v>2.51393350402781e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>0.008367269259394313</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.51393350402781e-06</v>
+        <v>0.1525125130131504</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.008367269259394313</v>
+        <v>0.02332907818243603</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1525125130131504</v>
+        <v>1.696789272294223</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02332907818243603</v>
+        <v>1.471355416913693</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.63259537447349</v>
+        <v>4.71289672205797</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.471355416913693</v>
+        <v>3.778736446569128e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.71289672205797</v>
+        <v>48460298.58852912</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.778736446569128e-15</v>
+        <v>2.282375942012222e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>48460298.58852912</v>
+        <v>8.873986708955442</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.282375942012222e-06</v>
+        <v>0.0001418098487250816</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8.873986708955442</v>
+        <v>8.474185457988256</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001418098487250816</v>
+        <v>1.363266880092917</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.474185457988256</v>
+        <v>0.01018362321407531</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.363266880092917</v>
+        <v>3.024605796852188</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01018362321407531</v>
+        <v>0.9511975685699423</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.024605796852188</v>
+        <v>1.838059940394106</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9511975685699423</v>
+        <v>40</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.838059940394106</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1900578377519563</v>
       </c>
     </row>
@@ -5464,72 +5416,66 @@
         <v>2.350901324401775e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2360440132429717</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.346379792787525</v>
+        <v>2.51590671043475e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>0.007977740513797139</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.51590671043475e-06</v>
+        <v>0.1530415924538616</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.007977740513797139</v>
+        <v>0.02348512632002749</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1530415924538616</v>
+        <v>1.69286757433454</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02348512632002749</v>
+        <v>1.438510625860798</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.631764850607455</v>
+        <v>5.189852185500586</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.438510625860798</v>
+        <v>3.11610778006468e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.189852185500586</v>
+        <v>58266760.18150355</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.11610778006468e-15</v>
+        <v>1.893656690806362e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>58266760.18150355</v>
+        <v>10.57923372079736</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.893656690806362e-06</v>
+        <v>0.0001861765138000073</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.57923372079736</v>
+        <v>12.15837895655811</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001861765138000073</v>
+        <v>1.081594418257403</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.15837895655811</v>
+        <v>0.02752176262690675</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.081594418257403</v>
+        <v>2.514926089828394</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02752176262690675</v>
+        <v>0.9533550022849977</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.514926089828394</v>
+        <v>1.813620383097892</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9533550022849977</v>
+        <v>40</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.813620383097892</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2020376520087471</v>
       </c>
     </row>
@@ -5544,72 +5490,66 @@
         <v>2.343888458751352e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2556451847820275</v>
+        <v>7.114323997961894e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.322063827558498</v>
+        <v>2.517586396068956e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.114323997961894e-07</v>
+        <v>0.006337955466007992</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.517586396068956e-06</v>
+        <v>0.1534232455225889</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.006337955466007992</v>
+        <v>0.02357857698009163</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1534232455225889</v>
+        <v>1.748165077184685</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02357857698009163</v>
+        <v>1.587969570245387</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.701201319159724</v>
+        <v>4.3898475519485</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.587969570245387</v>
+        <v>2.657963411663948e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.3898475519485</v>
+        <v>66297761.38552768</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.657963411663948e-15</v>
+        <v>1.697096629488381e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>66297761.38552768</v>
+        <v>11.68279421173643</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.697096629488381e-06</v>
+        <v>0.0002390662181515731</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.68279421173643</v>
+        <v>11.15345222792019</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002390662181515731</v>
+        <v>1.310957198027378</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.15345222792019</v>
+        <v>0.02973971719224048</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.310957198027378</v>
+        <v>2.431272051509348</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02973971719224048</v>
+        <v>0.9544816264017799</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.431272051509348</v>
+        <v>1.760727259381799</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9544816264017799</v>
+        <v>39</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.760727259381799</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1800609398010971</v>
       </c>
     </row>
@@ -5986,7 +5926,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.276037079396588</v>
+        <v>1.275149678040683</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.946145951170408</v>
@@ -6075,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288342607307921</v>
+        <v>1.290185748178073</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.852924005011726</v>
@@ -6164,7 +6104,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.271827394512207</v>
+        <v>1.269292828282228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.90544254984477</v>
@@ -6253,7 +6193,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.28475044670373</v>
+        <v>1.277592584062579</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.943776625688787</v>
@@ -6342,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.27492473907932</v>
+        <v>1.273021186187922</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.915109878091022</v>
@@ -6431,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.270163065679399</v>
+        <v>1.276229607695597</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.930116446428966</v>
@@ -6520,7 +6460,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.271379809154896</v>
+        <v>1.278876829863158</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.860275407225447</v>
@@ -6609,7 +6549,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.2742801742261</v>
+        <v>1.277323414186209</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.858700409622752</v>
@@ -6698,7 +6638,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.286167483958987</v>
+        <v>1.291686838266015</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.801970886151446</v>
@@ -6787,7 +6727,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.297799860140336</v>
+        <v>1.300791116862583</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.800158424427655</v>
@@ -6876,7 +6816,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.30693774775246</v>
+        <v>1.312308220249779</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.782293867542786</v>
@@ -6965,7 +6905,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.299161923486526</v>
+        <v>1.307414205310063</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.837192575992886</v>
@@ -7054,7 +6994,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299136038476917</v>
+        <v>1.307917137718161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.871891838548755</v>
@@ -7143,7 +7083,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.320674723442238</v>
+        <v>1.331773205336125</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.806126907086898</v>
@@ -7232,7 +7172,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.39860129858122</v>
+        <v>1.405696513283098</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.087739444063516</v>
@@ -7321,7 +7261,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.415164069762348</v>
+        <v>1.423149988668761</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.232295264108004</v>
@@ -7410,7 +7350,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.40141546842869</v>
+        <v>1.40624106372385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.187501577875619</v>
@@ -7499,7 +7439,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.431270836603992</v>
+        <v>1.438794131206005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.152369439651777</v>
@@ -7588,7 +7528,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.460771966811766</v>
+        <v>1.460790537407629</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.95756478766184</v>
@@ -7677,7 +7617,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.47455319260795</v>
+        <v>1.474856547139558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.184432060822966</v>
@@ -7766,7 +7706,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.460604293299554</v>
+        <v>1.459062739247577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.263144546086947</v>
@@ -7855,7 +7795,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.466755908904779</v>
+        <v>1.467651901495094</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.149372382751063</v>
@@ -7944,7 +7884,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.473526509986123</v>
+        <v>1.4765880977064</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.122640847837635</v>
@@ -8033,7 +7973,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465456100981661</v>
+        <v>1.458892781071172</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.182400551351326</v>
@@ -8122,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.479234174927513</v>
+        <v>1.47968538578821</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.110361889041358</v>
@@ -8211,7 +8151,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.4751140556629</v>
+        <v>1.470588470864829</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.138754191542473</v>
@@ -8300,7 +8240,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.51088809681112</v>
+        <v>1.502321184806061</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.026752668110888</v>
@@ -8389,7 +8329,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.539480401553105</v>
+        <v>1.533775044038648</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.11352936943116</v>
@@ -8478,7 +8418,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534013597027424</v>
+        <v>1.527593759892966</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.155300695829943</v>
@@ -8567,7 +8507,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502079092263285</v>
+        <v>1.496555076862224</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.16028626488322</v>
@@ -8656,7 +8596,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510967620413719</v>
+        <v>1.50746425979505</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.100219362274937</v>
@@ -8745,7 +8685,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515185472189394</v>
+        <v>1.513875448426327</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.106721939885781</v>
@@ -8834,7 +8774,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.510935905951738</v>
+        <v>1.510126322490174</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.093325936094872</v>
@@ -8923,7 +8863,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.511660910952284</v>
+        <v>1.514589520329673</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.170660530902197</v>
@@ -9012,7 +8952,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503640425103194</v>
+        <v>1.499551267322509</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.130371465703229</v>
@@ -9101,7 +9041,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.518011584527547</v>
+        <v>1.523436893855455</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.154842680428232</v>
@@ -9190,7 +9130,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518433356311724</v>
+        <v>1.520624501832873</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.100705098855785</v>
@@ -9279,7 +9219,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527943872524877</v>
+        <v>1.526818010351688</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.084411005794749</v>
@@ -9368,7 +9308,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558427758147488</v>
+        <v>1.559183649253739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.080454586111368</v>
@@ -9457,7 +9397,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.578761959140448</v>
+        <v>1.578177963142457</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.132710556426785</v>
@@ -9546,7 +9486,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627680625984887</v>
+        <v>1.616991357543488</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.266693055999168</v>
@@ -9635,7 +9575,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.417920946706908</v>
+        <v>1.41916216376512</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.595408654573092</v>
@@ -9724,7 +9664,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.410912050188455</v>
+        <v>1.426087460014206</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.611402338011037</v>
@@ -9813,7 +9753,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.420105967028237</v>
+        <v>1.436120301514119</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.611281114191832</v>
@@ -9902,7 +9842,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.43953638504453</v>
+        <v>1.457972816673953</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.612246156127566</v>
@@ -9991,7 +9931,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446456142378989</v>
+        <v>1.462606319629194</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.625021904181877</v>
@@ -10080,7 +10020,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459525474392231</v>
+        <v>1.476807875982504</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.617017285781358</v>
@@ -10169,7 +10109,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.47065994045343</v>
+        <v>1.487751753146262</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.62968304533477</v>
@@ -10258,7 +10198,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.488895845274226</v>
+        <v>1.506605962293734</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.644711514989938</v>
@@ -10347,7 +10287,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.524281025207323</v>
+        <v>1.540344238462564</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.637103099840936</v>
@@ -10436,7 +10376,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.52893577440817</v>
+        <v>1.544156379221837</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.662010491489679</v>
@@ -10525,7 +10465,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.535781269241452</v>
+        <v>1.552472535772164</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.669568778291129</v>
@@ -10614,7 +10554,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.52412503984383</v>
+        <v>1.541273943748964</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.689978782329011</v>
@@ -10900,7 +10840,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.293735451461861</v>
+        <v>1.290089561372981</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.087800088116873</v>
@@ -10989,7 +10929,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.303924997809862</v>
+        <v>1.303850176771387</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.965256579621224</v>
@@ -11078,7 +11018,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.279390431287188</v>
+        <v>1.274847202772293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.017769711673498</v>
@@ -11167,7 +11107,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.292921987859974</v>
+        <v>1.278424192956459</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.956829698641065</v>
@@ -11256,7 +11196,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.278994296888498</v>
+        <v>1.268259395052449</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.069922672177895</v>
@@ -11345,7 +11285,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.272510737898269</v>
+        <v>1.269969858060301</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.00258644463728</v>
@@ -11434,7 +11374,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.289689431959665</v>
+        <v>1.29317730715402</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.943528330899039</v>
@@ -11523,7 +11463,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.296224004315815</v>
+        <v>1.300146564105981</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.136874119603019</v>
@@ -11612,7 +11552,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.278690606468795</v>
+        <v>1.282524510338322</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.084412720977212</v>
@@ -11701,7 +11641,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.278971877877386</v>
+        <v>1.282280587975419</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.090176910895525</v>
@@ -11790,7 +11730,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.287772233274481</v>
+        <v>1.2957647117633</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.167848322370316</v>
@@ -11879,7 +11819,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.278766004546257</v>
+        <v>1.287740514249785</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.203939649840439</v>
@@ -11968,7 +11908,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.270292269640076</v>
+        <v>1.277637588833781</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.237650814827072</v>
@@ -12057,7 +11997,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.279320474748407</v>
+        <v>1.289082011514228</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.103512940471593</v>
@@ -12146,7 +12086,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.302253198596143</v>
+        <v>1.319472499228684</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.096783708698696</v>
@@ -12235,7 +12175,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.319237339118618</v>
+        <v>1.34061987843428</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.014899749112666</v>
@@ -12324,7 +12264,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.320141998398561</v>
+        <v>1.338491684581413</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.088290079675459</v>
@@ -12413,7 +12353,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.36243341642537</v>
+        <v>1.388775912810671</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.1491828043506</v>
@@ -12502,7 +12442,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.382476598847338</v>
+        <v>1.408340783556789</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.984461955924163</v>
@@ -12591,7 +12531,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.399227193808005</v>
+        <v>1.430548272953886</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.229186365469625</v>
@@ -12680,7 +12620,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.393862452621424</v>
+        <v>1.421309625238921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.160282616438788</v>
@@ -12769,7 +12709,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.400418944622999</v>
+        <v>1.433141757822137</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.187339199070917</v>
@@ -12858,7 +12798,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.391274016043721</v>
+        <v>1.425666380366619</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.240945629793389</v>
@@ -12947,7 +12887,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430791349462661</v>
+        <v>1.456565935502239</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.361711029853695</v>
@@ -13036,7 +12976,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.457117422298494</v>
+        <v>1.483435071544966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.115574317904349</v>
@@ -13125,7 +13065,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.455879060799512</v>
+        <v>1.47317450003904</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.274460536640886</v>
@@ -13214,7 +13154,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.475517768644816</v>
+        <v>1.496296220253441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.139116438796919</v>
@@ -13303,7 +13243,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.479368544827691</v>
+        <v>1.508790074703883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.411400981038774</v>
@@ -13392,7 +13332,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.477169008454362</v>
+        <v>1.502595408964195</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.468324124196773</v>
@@ -13481,7 +13421,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468509718598689</v>
+        <v>1.492337435756558</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.429272714928408</v>
@@ -13570,7 +13510,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464112003671791</v>
+        <v>1.490674054511594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.449324494951901</v>
@@ -13659,7 +13599,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448217691502764</v>
+        <v>1.474401074187996</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.304252461391784</v>
@@ -13748,7 +13688,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.434273157608867</v>
+        <v>1.457971748702495</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.300776034755071</v>
@@ -13837,7 +13777,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.44042596073969</v>
+        <v>1.465056834125233</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.343696743084421</v>
@@ -13926,7 +13866,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.42303684153112</v>
+        <v>1.440477899066065</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.344121270975936</v>
@@ -14015,7 +13955,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.431081301454772</v>
+        <v>1.459581868146369</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.30021248074517</v>
@@ -14104,7 +14044,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.422786980532765</v>
+        <v>1.444215870565546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.35652761111552</v>
@@ -14193,7 +14133,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.439700995465453</v>
+        <v>1.457470104779228</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.28091962182729</v>
@@ -14282,7 +14222,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.443705104273003</v>
+        <v>1.460798087713767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.227003106737371</v>
@@ -14371,7 +14311,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451170152565357</v>
+        <v>1.470653720902865</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.294200055717004</v>
@@ -14460,7 +14400,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.470621630803517</v>
+        <v>1.498380067931969</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.174590228411334</v>
@@ -14549,7 +14489,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.476089903707467</v>
+        <v>1.496879715018278</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.969462346432669</v>
@@ -14638,7 +14578,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.493597048788606</v>
+        <v>1.512118308359721</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.090038282206181</v>
@@ -14727,7 +14667,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.500246989137856</v>
+        <v>1.519760440871758</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.03158841766818</v>
@@ -14816,7 +14756,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.532243194965038</v>
+        <v>1.555409653099106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.157429866117998</v>
@@ -14905,7 +14845,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54659675274536</v>
+        <v>1.560501117671844</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.174024161104791</v>
@@ -14994,7 +14934,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.592938425938468</v>
+        <v>1.61109895912266</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.288313084808297</v>
@@ -15083,7 +15023,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583848419290955</v>
+        <v>1.604886204569722</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.304153077840534</v>
@@ -15172,7 +15112,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.570670223921874</v>
+        <v>1.593469082540633</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.310629472842026</v>
@@ -15261,7 +15201,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624982255698073</v>
+        <v>1.642072333295246</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.601366037797904</v>
@@ -15350,7 +15290,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.632335565321897</v>
+        <v>1.640789751292588</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.721022085781786</v>
@@ -15439,7 +15379,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.637258987111494</v>
+        <v>1.645438431883504</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.920516397312167</v>
@@ -15528,7 +15468,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.643858618974329</v>
+        <v>1.64166274049471</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.050876493287478</v>
@@ -15814,7 +15754,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556152639000792</v>
+        <v>1.548806917952062</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.368613859871282</v>
@@ -15903,7 +15843,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.547179644518409</v>
+        <v>1.544572513921744</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.36225340413207</v>
@@ -15992,7 +15932,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.509434654581985</v>
+        <v>1.502061718447709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.270280162801003</v>
@@ -16081,7 +16021,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.512603629283777</v>
+        <v>1.503173316914677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.230721064150826</v>
@@ -16170,7 +16110,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514816600937546</v>
+        <v>1.490333398317005</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.334985654741031</v>
@@ -16259,7 +16199,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502860115336884</v>
+        <v>1.494424739803396</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.296483478307751</v>
@@ -16348,7 +16288,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.511618232590529</v>
+        <v>1.502045036148045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.330025147688744</v>
@@ -16437,7 +16377,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.505458475899391</v>
+        <v>1.487867407962673</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.322943555095485</v>
@@ -16526,7 +16466,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.522337324553727</v>
+        <v>1.50517719718268</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.386942454756968</v>
@@ -16615,7 +16555,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529618368758918</v>
+        <v>1.511021453982487</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.353487056209711</v>
@@ -16704,7 +16644,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.52771724583488</v>
+        <v>1.509429879145093</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.3268440164206</v>
@@ -16793,7 +16733,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.527029757349817</v>
+        <v>1.509116602898784</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.339472401689971</v>
@@ -16882,7 +16822,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534056077463904</v>
+        <v>1.513568668214001</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.360550004576525</v>
@@ -16971,7 +16911,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.541231073559322</v>
+        <v>1.519390721947638</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.424241702476424</v>
@@ -17060,7 +17000,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566559896695938</v>
+        <v>1.536168162029454</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.497291878545395</v>
@@ -17149,7 +17089,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576007758452485</v>
+        <v>1.546515972552882</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.394602110167846</v>
@@ -17238,7 +17178,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577650037549611</v>
+        <v>1.541194006732665</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.566054986292346</v>
@@ -17327,7 +17267,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606841658043276</v>
+        <v>1.572278236472802</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.812100624410109</v>
@@ -17416,7 +17356,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610718775348761</v>
+        <v>1.57442640273412</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.619496221520527</v>
@@ -17505,7 +17445,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600610808696472</v>
+        <v>1.579957841506227</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.935750894354969</v>
@@ -17594,7 +17534,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618599838516706</v>
+        <v>1.58895459363958</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.983411260160311</v>
@@ -17683,7 +17623,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629551016767594</v>
+        <v>1.604371450119004</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.015027494306186</v>
@@ -17772,7 +17712,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636442747270224</v>
+        <v>1.617573033996201</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.144105302907958</v>
@@ -17861,7 +17801,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.645074653714061</v>
+        <v>1.62414584485101</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.127216707163383</v>
@@ -17950,7 +17890,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.632166849207598</v>
+        <v>1.620426700620527</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.913977394569611</v>
@@ -18039,7 +17979,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630775949261273</v>
+        <v>1.620386707316925</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.926920771752663</v>
@@ -18128,7 +18068,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.65214641120537</v>
+        <v>1.63924655345927</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.546815707616526</v>
@@ -18217,7 +18157,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.646958066479089</v>
+        <v>1.635041829208301</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.848536809018493</v>
@@ -18306,7 +18246,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647673247265531</v>
+        <v>1.635383778340317</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.665416777963503</v>
@@ -18395,7 +18335,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.640083480694603</v>
+        <v>1.629043242450653</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.750005268418116</v>
@@ -18484,7 +18424,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634644976588979</v>
+        <v>1.628612070689784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.804168599792263</v>
@@ -18573,7 +18513,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643863734965993</v>
+        <v>1.638475076680762</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.712678770109293</v>
@@ -18662,7 +18602,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638192071910188</v>
+        <v>1.631133113525047</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.589904858631224</v>
@@ -18751,7 +18691,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642295306986726</v>
+        <v>1.634970416825831</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.833174365766523</v>
@@ -18840,7 +18780,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645334883798836</v>
+        <v>1.636728569014086</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.838799625516661</v>
@@ -18929,7 +18869,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.641510987392382</v>
+        <v>1.636022918650514</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.717371277179812</v>
@@ -19018,7 +18958,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.642924356448895</v>
+        <v>1.634235904619133</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.699781113518219</v>
@@ -19107,7 +19047,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632617159552087</v>
+        <v>1.625688169924602</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.679674138242226</v>
@@ -19196,7 +19136,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620911202187065</v>
+        <v>1.61085267189852</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.408427323899533</v>
@@ -19285,7 +19225,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649616324462343</v>
+        <v>1.631695970326204</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.511725765375858</v>
@@ -19374,7 +19314,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.662965137533116</v>
+        <v>1.639477170018581</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.026685099635658</v>
@@ -19463,7 +19403,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.590022311103545</v>
+        <v>1.574002017957413</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.656355985744417</v>
@@ -19552,7 +19492,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595021795867746</v>
+        <v>1.582453436182375</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.736994938710727</v>
@@ -19641,7 +19581,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59918762915994</v>
+        <v>1.588438293430972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.707704865879758</v>
@@ -19730,7 +19670,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.613185594782267</v>
+        <v>1.596460813233313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.623251989947859</v>
@@ -19819,7 +19759,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.621365556514704</v>
+        <v>1.599840438211552</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.761259169240561</v>
@@ -19908,7 +19848,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.616003516846493</v>
+        <v>1.592425335307341</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.74698551378401</v>
@@ -19997,7 +19937,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606438998429241</v>
+        <v>1.58276171896085</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.635928478663028</v>
@@ -20086,7 +20026,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.617152738895219</v>
+        <v>1.591429970745711</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.833370630742942</v>
@@ -20175,7 +20115,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627207315531694</v>
+        <v>1.601108005380876</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.644423655080466</v>
@@ -20264,7 +20204,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636217520584179</v>
+        <v>1.611140149962224</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.773631230740055</v>
@@ -20353,7 +20293,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.635944209781919</v>
+        <v>1.612527424782669</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.851675571101308</v>
@@ -20442,7 +20382,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.637802454208014</v>
+        <v>1.612472530806178</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.68473195956696</v>
@@ -20728,7 +20668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715788778362775</v>
+        <v>1.736048718494833</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.146530548738043</v>
@@ -20817,7 +20757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.725448104604215</v>
+        <v>1.746365652783821</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.204076396138071</v>
@@ -20906,7 +20846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.668638868602227</v>
+        <v>1.674929149875817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.036826161124273</v>
@@ -20995,7 +20935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663596871361004</v>
+        <v>1.664103065058338</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.058774259690447</v>
@@ -21084,7 +21024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623554239265909</v>
+        <v>1.612621884763859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.958047409787984</v>
@@ -21173,7 +21113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.625714561246972</v>
+        <v>1.611691366943758</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.963824504048152</v>
@@ -21262,7 +21202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642277979510358</v>
+        <v>1.623840695604604</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.019574181094014</v>
@@ -21351,7 +21291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.686583606573788</v>
+        <v>1.661345206049522</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.922299323591979</v>
@@ -21440,7 +21380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683928506374623</v>
+        <v>1.653793978234376</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.910822889370938</v>
@@ -21529,7 +21469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.677703102813595</v>
+        <v>1.650725223455024</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.934522270583159</v>
@@ -21618,7 +21558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668952807574144</v>
+        <v>1.641765860649396</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.895079692402424</v>
@@ -21707,7 +21647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.671076977382011</v>
+        <v>1.646551943145578</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.928262847620517</v>
@@ -21796,7 +21736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670195849661813</v>
+        <v>1.646827376388809</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.935008065843405</v>
@@ -21885,7 +21825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.683169921590377</v>
+        <v>1.655019146816108</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.920335941121013</v>
@@ -21974,7 +21914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.687687730587711</v>
+        <v>1.65396880111122</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.266969632080775</v>
@@ -22063,7 +22003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.698246892464431</v>
+        <v>1.659571697085886</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.801586267818867</v>
@@ -22152,7 +22092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.70008494913244</v>
+        <v>1.662075028561945</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.107347011444649</v>
@@ -22241,7 +22181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.698406068220085</v>
+        <v>1.665623699174442</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.288172742272282</v>
@@ -22330,7 +22270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.70574902341746</v>
+        <v>1.673015548129065</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.139787258996912</v>
@@ -22419,7 +22359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.698012490152015</v>
+        <v>1.678953879181849</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.243750476624431</v>
@@ -22508,7 +22448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.697368852432122</v>
+        <v>1.676917544950055</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.237195796478632</v>
@@ -22597,7 +22537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.702607020396744</v>
+        <v>1.681427170224087</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.268420374012784</v>
@@ -22686,7 +22626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.687788863216503</v>
+        <v>1.671725317293963</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.097162223550641</v>
@@ -22775,7 +22715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.782634625091574</v>
+        <v>1.773558160790353</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.320601275703118</v>
@@ -22864,7 +22804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.761546042158708</v>
+        <v>1.765011570411442</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.298085096614068</v>
@@ -22953,7 +22893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.756635158194752</v>
+        <v>1.76527536038223</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.401986911556828</v>
@@ -23042,7 +22982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.758842483820642</v>
+        <v>1.764802156617494</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.378016595906421</v>
@@ -23131,7 +23071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.757856806607467</v>
+        <v>1.764351285396431</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.346121919432476</v>
@@ -23220,7 +23160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745363487203028</v>
+        <v>1.753676656007197</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.342906115489731</v>
@@ -23309,7 +23249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749517831094506</v>
+        <v>1.754634631380004</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.345889741484625</v>
@@ -23398,7 +23338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.751128653770469</v>
+        <v>1.754368465788667</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.337383201235367</v>
@@ -23487,7 +23427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.740212742098478</v>
+        <v>1.743015324147214</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.271200614041812</v>
@@ -23576,7 +23516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.728334181417149</v>
+        <v>1.729711136221323</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.310579589368428</v>
@@ -23665,7 +23605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.729438383796153</v>
+        <v>1.732240890668536</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.312561531361637</v>
@@ -23754,7 +23694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730195081781331</v>
+        <v>1.730652746608098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.342772449575666</v>
@@ -23843,7 +23783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.723863499600804</v>
+        <v>1.727492077634958</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.306381196523765</v>
@@ -23932,7 +23872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.721254742652301</v>
+        <v>1.723124191214794</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.291613421493889</v>
@@ -24021,7 +23961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.725402403636678</v>
+        <v>1.726099966731517</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.275545004540298</v>
@@ -24110,7 +24050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656213009725923</v>
+        <v>1.647593193889775</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.893587411743387</v>
@@ -24199,7 +24139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657320305182775</v>
+        <v>1.637302788196812</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.052780446334512</v>
@@ -24288,7 +24228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653344437466902</v>
+        <v>1.627100804037999</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.406835149325975</v>
@@ -24377,7 +24317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.643979024431741</v>
+        <v>1.617893961558309</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.951629145265247</v>
@@ -24466,7 +24406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650847505720071</v>
+        <v>1.63239637286044</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.940543683692731</v>
@@ -24555,7 +24495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663384558725174</v>
+        <v>1.642998456844254</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.952677514349146</v>
@@ -24644,7 +24584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667332831574246</v>
+        <v>1.648379665833474</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.040562764694096</v>
@@ -24733,7 +24673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668791465823043</v>
+        <v>1.648666747225878</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.167513086845672</v>
@@ -24822,7 +24762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.656844237761043</v>
+        <v>1.636483691587025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.175614266140738</v>
@@ -24911,7 +24851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665395956871994</v>
+        <v>1.642635997274511</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.192185249073068</v>
@@ -25000,7 +24940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.670410831431465</v>
+        <v>1.651263935495716</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.016047267684316</v>
@@ -25089,7 +25029,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.692306627061585</v>
+        <v>1.669858046591868</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.94824747191278</v>
@@ -25178,7 +25118,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.702836797837065</v>
+        <v>1.683077965369322</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.181141010017865</v>
@@ -25267,7 +25207,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.709726609469623</v>
+        <v>1.694098762325518</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.245729563312697</v>
@@ -25356,7 +25296,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.720793955866873</v>
+        <v>1.707077119887454</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.369520449146662</v>
@@ -25642,7 +25582,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.660689895474094</v>
+        <v>1.676483712457422</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.468695720258991</v>
@@ -25731,7 +25671,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.668957699611257</v>
+        <v>1.68912374419478</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.552385119262913</v>
@@ -25820,7 +25760,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585151407291938</v>
+        <v>1.595496178809859</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.20822565746014</v>
@@ -25909,7 +25849,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.581781937171526</v>
+        <v>1.58809125481953</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.3387720498063</v>
@@ -25998,7 +25938,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50547140013982</v>
+        <v>1.518838971009081</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.190636682203901</v>
@@ -26087,7 +26027,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.510910015624455</v>
+        <v>1.530591705119403</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.210001812423102</v>
@@ -26176,7 +26116,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524623293619598</v>
+        <v>1.550738111461679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.971620460357163</v>
@@ -26265,7 +26205,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.535931867976048</v>
+        <v>1.559244621136296</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.154917384990049</v>
@@ -26354,7 +26294,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.541944546596483</v>
+        <v>1.567200691133561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.193092282353168</v>
@@ -26443,7 +26383,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.540590258242793</v>
+        <v>1.566258860228744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.151898940529382</v>
@@ -26532,7 +26472,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545560437917859</v>
+        <v>1.569594217504686</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.186952173998839</v>
@@ -26621,7 +26561,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554555957682139</v>
+        <v>1.578893463148635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.189490457243622</v>
@@ -26710,7 +26650,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.546825800406683</v>
+        <v>1.572503477536741</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.151721490388927</v>
@@ -26799,7 +26739,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.559819415389816</v>
+        <v>1.585727971794141</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.184566221003586</v>
@@ -26888,7 +26828,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611802180946483</v>
+        <v>1.62442454649379</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.543496095044665</v>
@@ -26977,7 +26917,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598766497593458</v>
+        <v>1.616513702115725</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.3762341497597</v>
@@ -27066,7 +27006,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.61708135286172</v>
+        <v>1.631206626097398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.488534835251508</v>
@@ -27155,7 +27095,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.619495617441491</v>
+        <v>1.633636533144768</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.519257338985007</v>
@@ -27244,7 +27184,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624383142756341</v>
+        <v>1.637598511336843</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.503589194612624</v>
@@ -27333,7 +27273,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.622149550439797</v>
+        <v>1.639476993577644</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.557920387455793</v>
@@ -27422,7 +27362,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.626522736304022</v>
+        <v>1.642832965233158</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.397596988999474</v>
@@ -27511,7 +27451,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.636268060304483</v>
+        <v>1.650402602888787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.543995705623566</v>
@@ -27600,7 +27540,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638706468234111</v>
+        <v>1.657470794015419</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.63433429187183</v>
@@ -27689,7 +27629,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.752306139751545</v>
+        <v>1.766194417075084</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.056096953062141</v>
@@ -27778,7 +27718,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757610876377742</v>
+        <v>1.771448396992084</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.110069338875529</v>
@@ -27867,7 +27807,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.756790507022494</v>
+        <v>1.769064210133004</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.163557013429332</v>
@@ -27956,7 +27896,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.756577230187362</v>
+        <v>1.765984106818205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.139014920165607</v>
@@ -28045,7 +27985,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.767033675797914</v>
+        <v>1.774971566672615</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.125053708551663</v>
@@ -28134,7 +28074,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765169509809012</v>
+        <v>1.772609424428175</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.103703813198908</v>
@@ -28223,7 +28163,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775500527751357</v>
+        <v>1.783219380743013</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.088716282120378</v>
@@ -28312,7 +28252,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.788421371659115</v>
+        <v>1.796015078009385</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.12320298102509</v>
@@ -28401,7 +28341,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775602903941473</v>
+        <v>1.782437414717408</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.046997950961451</v>
@@ -28490,7 +28430,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.768394286786356</v>
+        <v>1.77783563790356</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.077290523135455</v>
@@ -28579,7 +28519,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.770068965828001</v>
+        <v>1.779667647075922</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.092414852158121</v>
@@ -28668,7 +28608,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.773526099016763</v>
+        <v>1.779553036704965</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.048202334235236</v>
@@ -28757,7 +28697,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.774805875654208</v>
+        <v>1.783007701093217</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.038713344034278</v>
@@ -28846,7 +28786,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.775103588079763</v>
+        <v>1.78486213000833</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.038271149628409</v>
@@ -28935,7 +28875,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.762147878559043</v>
+        <v>1.770005450222483</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.069741710664983</v>
@@ -29024,7 +28964,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.657084720586093</v>
+        <v>1.650940267882355</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.206407351653588</v>
@@ -29113,7 +29053,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.614358766340661</v>
+        <v>1.613494327935858</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.546369504919165</v>
@@ -29202,7 +29142,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622125925600845</v>
+        <v>1.616914309230807</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.305144627084</v>
@@ -29291,7 +29231,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588583670280915</v>
+        <v>1.589372294428571</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.837942950552691</v>
@@ -29380,7 +29320,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594416606342888</v>
+        <v>1.594078636215845</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.857421771756307</v>
@@ -29469,7 +29409,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597330738418526</v>
+        <v>1.591490951788518</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.72740490741693</v>
@@ -29558,7 +29498,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602839125173571</v>
+        <v>1.596582263040809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.824051292472687</v>
@@ -29647,7 +29587,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.597645610988783</v>
+        <v>1.585946559355796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.958721708937566</v>
@@ -29736,7 +29676,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.593277447132272</v>
+        <v>1.580330497599203</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.707645753194568</v>
@@ -29825,7 +29765,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.593037958319747</v>
+        <v>1.579888855138504</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.846125636892539</v>
@@ -29914,7 +29854,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589730078246468</v>
+        <v>1.573344744359035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.98089456202639</v>
@@ -30003,7 +29943,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.602120386167927</v>
+        <v>1.591028967748241</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.875515484991717</v>
@@ -30092,7 +30032,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603191073243179</v>
+        <v>1.589425267827482</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.028221081176407</v>
@@ -30181,7 +30121,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598112447471689</v>
+        <v>1.582101200525904</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.837072950583508</v>
@@ -30270,7 +30210,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61061515306733</v>
+        <v>1.600972195205421</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.061435548873991</v>
@@ -30556,7 +30496,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.434661776360139</v>
+        <v>1.445696273079746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.17434510084081</v>
@@ -30645,7 +30585,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456383769024411</v>
+        <v>1.467134438982999</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.103189666247054</v>
@@ -30734,7 +30674,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.404128922453777</v>
+        <v>1.404618645154722</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.129705899442085</v>
@@ -30823,7 +30763,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.420874121210006</v>
+        <v>1.41455511375763</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.059524476541056</v>
@@ -30912,7 +30852,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.392573407036863</v>
+        <v>1.385869935632749</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.925222196810854</v>
@@ -31001,7 +30941,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.388520337824769</v>
+        <v>1.385807979165267</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.002794064513095</v>
@@ -31090,7 +31030,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.390519206947809</v>
+        <v>1.392330237249367</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.895139691894351</v>
@@ -31179,7 +31119,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.377223264428278</v>
+        <v>1.378919009504064</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.990266234981576</v>
@@ -31268,7 +31208,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.37524155523161</v>
+        <v>1.376185865354219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001658933349959</v>
@@ -31357,7 +31297,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.388393583455947</v>
+        <v>1.386528088448068</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.988968015431627</v>
@@ -31446,7 +31386,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405464441569328</v>
+        <v>1.402925117792931</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.950779195462744</v>
@@ -31535,7 +31475,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.386165992348749</v>
+        <v>1.38992302354779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.957422962925067</v>
@@ -31624,7 +31564,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.387300975995864</v>
+        <v>1.390887054931613</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.977215032983531</v>
@@ -31713,7 +31653,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.423957936496806</v>
+        <v>1.424593538735941</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.980307473048619</v>
@@ -31802,7 +31742,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.434313439423502</v>
+        <v>1.421814085968876</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.081936696964394</v>
@@ -31891,7 +31831,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457041334295803</v>
+        <v>1.44150525452702</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.127031906482795</v>
@@ -31980,7 +31920,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.451747825388406</v>
+        <v>1.43728650130278</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.231643840076385</v>
@@ -32069,7 +32009,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.476134860757659</v>
+        <v>1.459859521175064</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.233893874541884</v>
@@ -32158,7 +32098,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.511617220302418</v>
+        <v>1.495339860037134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.104952692324954</v>
@@ -32247,7 +32187,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.530976583892338</v>
+        <v>1.520147257469644</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.24239639549833</v>
@@ -32336,7 +32276,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525840725634905</v>
+        <v>1.517848916274011</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.246485910520279</v>
@@ -32425,7 +32365,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532652616671668</v>
+        <v>1.524018455644529</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.164279380442036</v>
@@ -32514,7 +32454,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.534345155599912</v>
+        <v>1.527732969243226</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.183343190337583</v>
@@ -32603,7 +32543,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.574844562549161</v>
+        <v>1.568775224443878</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.230728305363134</v>
@@ -32692,7 +32632,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592707528484271</v>
+        <v>1.59139332282456</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.179095075402165</v>
@@ -32781,7 +32721,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572264962907085</v>
+        <v>1.569020946732874</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.183392805545509</v>
@@ -32870,7 +32810,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.606018390493511</v>
+        <v>1.599283137832947</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.100821171781329</v>
@@ -32959,7 +32899,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626117111810295</v>
+        <v>1.625040172736404</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.19507603354949</v>
@@ -33048,7 +32988,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614539046452087</v>
+        <v>1.617713746330494</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.20809491815818</v>
@@ -33137,7 +33077,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585702154821438</v>
+        <v>1.589620021091738</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.188225689767997</v>
@@ -33226,7 +33166,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587501529870309</v>
+        <v>1.594963127965859</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.183992890632042</v>
@@ -33315,7 +33255,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.571247683646472</v>
+        <v>1.579358911240618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.152147042473828</v>
@@ -33404,7 +33344,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.573193029798037</v>
+        <v>1.580665106389678</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.175058631079632</v>
@@ -33493,7 +33433,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566986247545882</v>
+        <v>1.576403349158555</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.180832176524849</v>
@@ -33582,7 +33522,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55363440675285</v>
+        <v>1.552426682664016</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.168129682559425</v>
@@ -33671,7 +33611,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569671507368954</v>
+        <v>1.576150435776083</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.174324538232217</v>
@@ -33760,7 +33700,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.575998405461407</v>
+        <v>1.57994773657373</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.146672873041227</v>
@@ -33849,7 +33789,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.581312986874981</v>
+        <v>1.583592684105466</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.139180984783748</v>
@@ -33938,7 +33878,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560829321686051</v>
+        <v>1.562362079761289</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.283460882588459</v>
@@ -34027,7 +33967,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569165993231451</v>
+        <v>1.562214071655423</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.127540984027953</v>
@@ -34116,7 +34056,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633891498382909</v>
+        <v>1.618589304480236</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.418527096789787</v>
@@ -34205,7 +34145,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621633836009823</v>
+        <v>1.606629485825696</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.428748429072593</v>
@@ -34294,7 +34234,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.642984462166703</v>
+        <v>1.631289474100578</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.432319553611949</v>
@@ -34383,7 +34323,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652084967734734</v>
+        <v>1.635746600808891</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.351326230315449</v>
@@ -34472,7 +34412,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.695984080204443</v>
+        <v>1.675237062943304</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.455068079352626</v>
@@ -34561,7 +34501,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.696187018739671</v>
+        <v>1.675214678949961</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.531774116423361</v>
@@ -34650,7 +34590,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.729133815457383</v>
+        <v>1.702420810933208</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.44926977136607</v>
@@ -34739,7 +34679,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.732604435840301</v>
+        <v>1.705578945295914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.526348025337241</v>
@@ -34828,7 +34768,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.740999859718249</v>
+        <v>1.711196322407134</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.642338362742486</v>
@@ -34917,7 +34857,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.799705443562308</v>
+        <v>1.761013769009555</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.954096873168934</v>
@@ -35006,7 +34946,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.806423387219743</v>
+        <v>1.768944857702475</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.330241097125439</v>
@@ -35095,7 +35035,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.812682534994146</v>
+        <v>1.777157044033879</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.452187360024141</v>
@@ -35184,7 +35124,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.824218398212924</v>
+        <v>1.788835336729583</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.043769212584868</v>
